--- a/harana/datasets/BPSFH/11/chords.xlsx
+++ b/harana/datasets/BPSFH/11/chords.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoyu/Desktop/video_music/harana/harana/datasets/BPSFH/11/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4E5A6-65A4-BA42-B79B-A6CA6A6873ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13644"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="211">
   <si>
     <t>B-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,11 +503,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ii-6</t>
+    <t>ii-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii-43/V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii-42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii-42/ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii-6/IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,11 +791,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V43</t>
+    <t>h7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii=7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,31 +803,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7/IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vii-43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7</t>
+    <t>V42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,341 +856,33 @@
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ii-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VI6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii-43/V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii-43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii-42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii-42/ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iv64</t>
   </si>
   <si>
     <t>V6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii-6/IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V7/IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bII</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ii-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vii-43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -972,7 +961,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,19 +1238,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -1284,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -1307,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>18</v>
       </c>
@@ -1330,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -1353,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -1376,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -1399,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>26</v>
       </c>
@@ -1422,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>28</v>
       </c>
@@ -1445,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -1468,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -1491,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>34</v>
       </c>
@@ -1514,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36</v>
       </c>
@@ -1537,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1560,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44</v>
       </c>
@@ -1583,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>48</v>
       </c>
@@ -1606,7 +1595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>52</v>
       </c>
@@ -1629,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -1652,7 +1641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>55</v>
       </c>
@@ -1675,7 +1664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>56</v>
       </c>
@@ -1698,7 +1687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>57</v>
       </c>
@@ -1721,7 +1710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>58</v>
       </c>
@@ -1744,7 +1733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>59</v>
       </c>
@@ -1767,7 +1756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -1790,7 +1779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>62</v>
       </c>
@@ -1813,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -1836,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>66</v>
       </c>
@@ -1859,7 +1848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>68</v>
       </c>
@@ -1882,7 +1871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -1905,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>72</v>
       </c>
@@ -1928,7 +1917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>74</v>
       </c>
@@ -1951,7 +1940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -1974,7 +1963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>77</v>
       </c>
@@ -1997,7 +1986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>78</v>
       </c>
@@ -2020,7 +2009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>79</v>
       </c>
@@ -2043,7 +2032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -2066,7 +2055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>84</v>
       </c>
@@ -2089,7 +2078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>99</v>
       </c>
@@ -2112,7 +2101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>100</v>
       </c>
@@ -2135,7 +2124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>110</v>
       </c>
@@ -2158,7 +2147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>111</v>
       </c>
@@ -2181,7 +2170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>112</v>
       </c>
@@ -2204,7 +2193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>114</v>
       </c>
@@ -2227,7 +2216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>115</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>116</v>
       </c>
@@ -2273,7 +2262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>120</v>
       </c>
@@ -2296,7 +2285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>122</v>
       </c>
@@ -2319,7 +2308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>124</v>
       </c>
@@ -2342,7 +2331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>126</v>
       </c>
@@ -2365,7 +2354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>128</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>130</v>
       </c>
@@ -2411,7 +2400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>132</v>
       </c>
@@ -2434,7 +2423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>138</v>
       </c>
@@ -2457,7 +2446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>139</v>
       </c>
@@ -2480,7 +2469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>140</v>
       </c>
@@ -2503,7 +2492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>142</v>
       </c>
@@ -2526,7 +2515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>143</v>
       </c>
@@ -2549,7 +2538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>144</v>
       </c>
@@ -2572,7 +2561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>146</v>
       </c>
@@ -2595,7 +2584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>148</v>
       </c>
@@ -2618,7 +2607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>152</v>
       </c>
@@ -2641,7 +2630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>154</v>
       </c>
@@ -2664,7 +2653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>156</v>
       </c>
@@ -2687,7 +2676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>158</v>
       </c>
@@ -2710,7 +2699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>160</v>
       </c>
@@ -2733,7 +2722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>162</v>
       </c>
@@ -2756,7 +2745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>164</v>
       </c>
@@ -2779,7 +2768,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>170</v>
       </c>
@@ -2802,7 +2791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>171</v>
       </c>
@@ -2825,7 +2814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>172</v>
       </c>
@@ -2848,7 +2837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>176</v>
       </c>
@@ -2871,7 +2860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>180</v>
       </c>
@@ -2894,7 +2883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>184</v>
       </c>
@@ -2917,7 +2906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>186.5</v>
       </c>
@@ -2940,7 +2929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>188</v>
       </c>
@@ -2963,7 +2952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>189.5</v>
       </c>
@@ -2986,7 +2975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>190</v>
       </c>
@@ -3009,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>190.5</v>
       </c>
@@ -3032,7 +3021,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>191</v>
       </c>
@@ -3055,7 +3044,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>191.5</v>
       </c>
@@ -3078,7 +3067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>192</v>
       </c>
@@ -3101,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>192.5</v>
       </c>
@@ -3124,7 +3113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>193</v>
       </c>
@@ -3147,7 +3136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>193.5</v>
       </c>
@@ -3170,7 +3159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>194</v>
       </c>
@@ -3193,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>194.5</v>
       </c>
@@ -3216,7 +3205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>195</v>
       </c>
@@ -3239,7 +3228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>195.5</v>
       </c>
@@ -3262,7 +3251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>196</v>
       </c>
@@ -3285,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>198</v>
       </c>
@@ -3308,7 +3297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>200</v>
       </c>
@@ -3331,7 +3320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>202</v>
       </c>
@@ -3354,7 +3343,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>204</v>
       </c>
@@ -3377,7 +3366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>204.5</v>
       </c>
@@ -3400,7 +3389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>205</v>
       </c>
@@ -3423,7 +3412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>205.5</v>
       </c>
@@ -3446,7 +3435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>206</v>
       </c>
@@ -3469,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>206.5</v>
       </c>
@@ -3492,7 +3481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>207</v>
       </c>
@@ -3515,7 +3504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>207.5</v>
       </c>
@@ -3538,7 +3527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>208</v>
       </c>
@@ -3561,7 +3550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>208.5</v>
       </c>
@@ -3584,7 +3573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>209</v>
       </c>
@@ -3607,7 +3596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>209.5</v>
       </c>
@@ -3630,7 +3619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>210</v>
       </c>
@@ -3653,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>211</v>
       </c>
@@ -3676,7 +3665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>212</v>
       </c>
@@ -3699,7 +3688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>214</v>
       </c>
@@ -3722,7 +3711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>218</v>
       </c>
@@ -3745,7 +3734,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>220</v>
       </c>
@@ -3768,7 +3757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>224</v>
       </c>
@@ -3779,19 +3768,19 @@
         <v>118</v>
       </c>
       <c r="D110" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="F110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>226</v>
       </c>
@@ -3799,22 +3788,22 @@
         <v>228</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D111" s="1">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>228</v>
       </c>
@@ -3828,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3837,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>232</v>
       </c>
@@ -3848,19 +3837,19 @@
         <v>118</v>
       </c>
       <c r="D113" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="F113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>234</v>
       </c>
@@ -3868,22 +3857,22 @@
         <v>236</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D114" s="1">
         <v>-2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>236</v>
       </c>
@@ -3906,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>238</v>
       </c>
@@ -3914,22 +3903,22 @@
         <v>240</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1">
         <v>7</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>240</v>
       </c>
@@ -3952,7 +3941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>242</v>
       </c>
@@ -3960,22 +3949,22 @@
         <v>244</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D118" s="1">
         <v>-2</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>244</v>
       </c>
@@ -3998,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>252</v>
       </c>
@@ -4021,7 +4010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>260</v>
       </c>
@@ -4044,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>261</v>
       </c>
@@ -4052,22 +4041,22 @@
         <v>262</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D122" s="1">
-        <v>5</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F122" s="1">
-        <v>0</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>262</v>
       </c>
@@ -4090,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>263</v>
       </c>
@@ -4098,22 +4087,22 @@
         <v>264</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="1">
-        <v>5</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F124" s="1">
-        <v>0</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>264</v>
       </c>
@@ -4136,7 +4125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>266</v>
       </c>
@@ -4144,22 +4133,22 @@
         <v>268</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="1">
-        <v>5</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F126" s="1">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>268</v>
       </c>
@@ -4182,7 +4171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>271</v>
       </c>
@@ -4205,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>288</v>
       </c>
@@ -4228,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>290</v>
       </c>
@@ -4251,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>292</v>
       </c>
@@ -4274,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>294</v>
       </c>
@@ -4297,7 +4286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>296</v>
       </c>
@@ -4320,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>298</v>
       </c>
@@ -4343,7 +4332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>300</v>
       </c>
@@ -4366,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>302</v>
       </c>
@@ -4389,7 +4378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>304</v>
       </c>
@@ -4412,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>306</v>
       </c>
@@ -4435,7 +4424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>308</v>
       </c>
@@ -4458,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>312</v>
       </c>
@@ -4481,7 +4470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>316</v>
       </c>
@@ -4504,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>320</v>
       </c>
@@ -4527,7 +4516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>324</v>
       </c>
@@ -4550,7 +4539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>326</v>
       </c>
@@ -4573,7 +4562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>327</v>
       </c>
@@ -4596,7 +4585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>328</v>
       </c>
@@ -4619,7 +4608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>329</v>
       </c>
@@ -4642,7 +4631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>330</v>
       </c>
@@ -4665,7 +4654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>331</v>
       </c>
@@ -4688,7 +4677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>332</v>
       </c>
@@ -4711,7 +4700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>334</v>
       </c>
@@ -4734,7 +4723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>336</v>
       </c>
@@ -4757,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>338</v>
       </c>
@@ -4780,7 +4769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>340</v>
       </c>
@@ -4803,7 +4792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>342</v>
       </c>
@@ -4826,7 +4815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>344</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>346</v>
       </c>
@@ -4872,7 +4861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>348</v>
       </c>
@@ -4895,7 +4884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>349</v>
       </c>
@@ -4918,7 +4907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>350</v>
       </c>
@@ -4941,7 +4930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>351</v>
       </c>
@@ -4964,7 +4953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>352</v>
       </c>
@@ -4987,7 +4976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>356</v>
       </c>
@@ -5010,7 +4999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>371</v>
       </c>
@@ -5033,7 +5022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>372</v>
       </c>
@@ -5056,7 +5045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>382</v>
       </c>
@@ -5079,7 +5068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>383</v>
       </c>
@@ -5102,7 +5091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>384</v>
       </c>
@@ -5125,7 +5114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>386</v>
       </c>
@@ -5148,7 +5137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>387</v>
       </c>
@@ -5171,7 +5160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>388</v>
       </c>
@@ -5194,7 +5183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>392</v>
       </c>
@@ -5217,7 +5206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>394</v>
       </c>
@@ -5240,7 +5229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>396</v>
       </c>
@@ -5263,7 +5252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>398</v>
       </c>
@@ -5286,7 +5275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>400</v>
       </c>
@@ -5309,7 +5298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>402</v>
       </c>
@@ -5332,7 +5321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>404</v>
       </c>
@@ -5355,7 +5344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>410</v>
       </c>
@@ -5378,7 +5367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>411</v>
       </c>
@@ -5401,7 +5390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>412</v>
       </c>
@@ -5424,7 +5413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>414</v>
       </c>
@@ -5447,7 +5436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>415</v>
       </c>
@@ -5470,7 +5459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>416</v>
       </c>
@@ -5493,7 +5482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>418</v>
       </c>
@@ -5516,7 +5505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>420</v>
       </c>
@@ -5539,7 +5528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>424</v>
       </c>
@@ -5562,7 +5551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>426</v>
       </c>
@@ -5585,7 +5574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>428</v>
       </c>
@@ -5608,7 +5597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>430</v>
       </c>
@@ -5631,7 +5620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>432</v>
       </c>
@@ -5654,7 +5643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>434</v>
       </c>
@@ -5677,7 +5666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>436</v>
       </c>
@@ -5700,7 +5689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>442</v>
       </c>
@@ -5723,7 +5712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>443</v>
       </c>
@@ -5746,7 +5735,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>444</v>
       </c>
@@ -5769,7 +5758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>448</v>
       </c>
@@ -5792,7 +5781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>452</v>
       </c>
@@ -5815,7 +5804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>456</v>
       </c>
@@ -5838,7 +5827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>458.5</v>
       </c>
@@ -5861,7 +5850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>460</v>
       </c>
@@ -5884,7 +5873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>461.5</v>
       </c>
@@ -5907,7 +5896,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>462</v>
       </c>
@@ -5930,7 +5919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>462.5</v>
       </c>
@@ -5953,7 +5942,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>463</v>
       </c>
@@ -5976,7 +5965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>463.5</v>
       </c>
@@ -5999,7 +5988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>464</v>
       </c>
@@ -6022,7 +6011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>464.5</v>
       </c>
@@ -6045,7 +6034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>465</v>
       </c>
@@ -6068,7 +6057,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>465.5</v>
       </c>
@@ -6091,7 +6080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>466</v>
       </c>
@@ -6114,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>466.5</v>
       </c>
@@ -6137,7 +6126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>467</v>
       </c>
@@ -6160,7 +6149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>467.5</v>
       </c>
@@ -6183,7 +6172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>468</v>
       </c>
@@ -6206,7 +6195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>470</v>
       </c>
@@ -6229,7 +6218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>472</v>
       </c>
@@ -6252,7 +6241,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>474</v>
       </c>
@@ -6275,7 +6264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>476</v>
       </c>
@@ -6298,7 +6287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>476.5</v>
       </c>
@@ -6321,7 +6310,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>477</v>
       </c>
@@ -6344,7 +6333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>477.5</v>
       </c>
@@ -6367,7 +6356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>478</v>
       </c>
@@ -6390,7 +6379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>478.5</v>
       </c>
@@ -6413,7 +6402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>479</v>
       </c>
@@ -6436,7 +6425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>479.5</v>
       </c>
@@ -6459,7 +6448,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>480</v>
       </c>
@@ -6482,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>480.5</v>
       </c>
@@ -6505,7 +6494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>481</v>
       </c>
@@ -6528,7 +6517,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>481.5</v>
       </c>
@@ -6551,7 +6540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>482</v>
       </c>
@@ -6574,7 +6563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>483</v>
       </c>
@@ -6597,7 +6586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>484</v>
       </c>
@@ -6620,7 +6609,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>486</v>
       </c>
@@ -6643,7 +6632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>490</v>
       </c>
@@ -6666,7 +6655,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>492</v>
       </c>
@@ -6689,7 +6678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>496</v>
       </c>
@@ -6700,19 +6689,19 @@
         <v>118</v>
       </c>
       <c r="D237" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="F237" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>498</v>
       </c>
@@ -6720,22 +6709,22 @@
         <v>500</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D238" s="1">
+        <v>5</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F238" s="1">
+        <v>2</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D238" s="1">
-        <v>5</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F238" s="1">
-        <v>2</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>500</v>
       </c>
@@ -6758,7 +6747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>504</v>
       </c>
@@ -6769,19 +6758,19 @@
         <v>118</v>
       </c>
       <c r="D240" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="F240" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>506</v>
       </c>
@@ -6789,22 +6778,22 @@
         <v>508</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D241" s="1">
         <v>-2</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F241" s="1">
         <v>1</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>508</v>
       </c>
@@ -6827,7 +6816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>510</v>
       </c>
@@ -6835,22 +6824,22 @@
         <v>512</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D243" s="1">
         <v>7</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F243" s="1">
         <v>2</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>512</v>
       </c>
@@ -6873,7 +6862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>514</v>
       </c>
@@ -6881,22 +6870,22 @@
         <v>516</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D245" s="1">
         <v>-2</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F245" s="1">
         <v>1</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>516</v>
       </c>
@@ -6919,7 +6908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>524</v>
       </c>
@@ -6942,7 +6931,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>532</v>
       </c>
@@ -6965,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>533</v>
       </c>
@@ -6973,22 +6962,22 @@
         <v>534</v>
       </c>
       <c r="C249" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D249" s="1">
+        <v>5</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D249" s="1">
-        <v>5</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F249" s="1">
-        <v>0</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>534</v>
       </c>
@@ -7011,7 +7000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>535</v>
       </c>
@@ -7019,22 +7008,22 @@
         <v>536</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D251" s="1">
+        <v>5</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D251" s="1">
-        <v>5</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F251" s="1">
-        <v>0</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>536</v>
       </c>
@@ -7057,7 +7046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>538</v>
       </c>
@@ -7065,22 +7054,22 @@
         <v>540</v>
       </c>
       <c r="C253" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D253" s="1">
+        <v>5</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D253" s="1">
-        <v>5</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F253" s="1">
-        <v>0</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>540</v>
       </c>
@@ -7103,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>543</v>
       </c>
@@ -7111,22 +7100,22 @@
         <v>558</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D255" s="1">
         <v>1</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F255" s="1">
         <v>0</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>558</v>
       </c>
@@ -7134,22 +7123,22 @@
         <v>562</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D256" s="1">
         <v>4</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F256" s="1">
         <v>0</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>562</v>
       </c>
@@ -7157,22 +7146,22 @@
         <v>566</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D257" s="1">
         <v>2</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F257" s="1">
         <v>0</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>566</v>
       </c>
@@ -7180,22 +7169,22 @@
         <v>570</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D258" s="1">
         <v>5</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F258" s="1">
         <v>0</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>570</v>
       </c>
@@ -7203,22 +7192,22 @@
         <v>572</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D259" s="1">
         <v>5</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F259" s="1">
         <v>0</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>572</v>
       </c>
@@ -7226,22 +7215,22 @@
         <v>574</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F260" s="1">
         <v>2</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>574</v>
       </c>
@@ -7249,22 +7238,22 @@
         <v>576</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D261" s="1">
         <v>6</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F261" s="1">
         <v>1</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>576</v>
       </c>
@@ -7272,22 +7261,22 @@
         <v>578</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D262" s="1">
         <v>5</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F262" s="1">
         <v>0</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>578</v>
       </c>
@@ -7295,22 +7284,22 @@
         <v>580</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D263" s="1">
         <v>5</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F263" s="1">
         <v>0</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>580</v>
       </c>
@@ -7318,22 +7307,22 @@
         <v>582</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D264" s="1">
         <v>1</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F264" s="1">
         <v>2</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>582</v>
       </c>
@@ -7341,22 +7330,22 @@
         <v>584</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D265" s="1">
         <v>6</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F265" s="1">
         <v>1</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>584</v>
       </c>
@@ -7364,22 +7353,22 @@
         <v>586</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D266" s="1">
         <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F266" s="1">
         <v>0</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>586</v>
       </c>
@@ -7387,22 +7376,22 @@
         <v>588</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E267" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F267" s="1">
+        <v>2</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F267" s="1">
-        <v>2</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>588</v>
       </c>
@@ -7410,22 +7399,22 @@
         <v>590</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D268" s="1">
         <v>5</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F268" s="1">
         <v>0</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>590</v>
       </c>
@@ -7433,22 +7422,22 @@
         <v>592</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D269" s="1">
         <v>6</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F269" s="1">
         <v>1</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>592</v>
       </c>
@@ -7456,22 +7445,22 @@
         <v>598</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D270" s="1">
         <v>5</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F270" s="1">
         <v>0</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>598</v>
       </c>
@@ -7479,22 +7468,22 @@
         <v>600</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D271" s="1">
+        <v>1</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D271" s="1">
-        <v>1</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F271" s="1">
-        <v>0</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>600</v>
       </c>
@@ -7502,22 +7491,22 @@
         <v>608</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D272" s="1">
         <v>7</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F272" s="1">
         <v>2</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>608</v>
       </c>
@@ -7525,22 +7514,22 @@
         <v>614</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D273" s="1">
         <v>5</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F273" s="1">
         <v>0</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>614</v>
       </c>
@@ -7548,22 +7537,22 @@
         <v>616</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D274" s="1">
         <v>1</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F274" s="1">
         <v>0</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>616</v>
       </c>
@@ -7571,22 +7560,22 @@
         <v>624</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D275" s="1">
         <v>7</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F275" s="1">
         <v>2</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>624</v>
       </c>
@@ -7594,22 +7583,22 @@
         <v>630</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D276" s="1">
         <v>5</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F276" s="1">
         <v>0</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>630</v>
       </c>
@@ -7617,22 +7606,22 @@
         <v>632</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F277" s="1">
         <v>0</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>632</v>
       </c>
@@ -7640,22 +7629,22 @@
         <v>640</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D278" s="1">
         <v>7</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F278" s="1">
         <v>2</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>640</v>
       </c>
@@ -7663,22 +7652,22 @@
         <v>648</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F279" s="1">
+        <v>1</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D279" s="1">
-        <v>1</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F279" s="1">
-        <v>1</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>648</v>
       </c>
@@ -7686,22 +7675,22 @@
         <v>656</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D280" s="1">
         <v>5</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F280" s="1">
         <v>0</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>656</v>
       </c>
@@ -7709,22 +7698,22 @@
         <v>660</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F281" s="1">
         <v>0</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>660</v>
       </c>
@@ -7732,22 +7721,22 @@
         <v>664</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D282" s="1">
         <v>7</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F282" s="1">
         <v>3</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>664</v>
       </c>
@@ -7755,22 +7744,22 @@
         <v>672</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D283" s="1">
         <v>5</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F283" s="1">
         <v>0</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>672</v>
       </c>
@@ -7778,22 +7767,22 @@
         <v>676</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F284" s="1">
         <v>0</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>676</v>
       </c>
@@ -7801,22 +7790,22 @@
         <v>680</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D285" s="1">
         <v>7</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F285" s="1">
         <v>3</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>680</v>
       </c>
@@ -7824,22 +7813,22 @@
         <v>704</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D286" s="1">
         <v>5</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F286" s="1">
         <v>0</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>704</v>
       </c>
@@ -7847,22 +7836,22 @@
         <v>720</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D287" s="1">
         <v>5</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F287" s="1">
         <v>0</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>720</v>
       </c>
@@ -7870,22 +7859,22 @@
         <v>779</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D288" s="6">
         <v>5</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F288" s="6">
         <v>0</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>779</v>
       </c>
@@ -7908,7 +7897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>796</v>
       </c>
@@ -7931,7 +7920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>798</v>
       </c>
@@ -7954,7 +7943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>800</v>
       </c>
@@ -7977,7 +7966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>802</v>
       </c>
@@ -8000,7 +7989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>804</v>
       </c>
@@ -8023,7 +8012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>806</v>
       </c>
@@ -8046,7 +8035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>808</v>
       </c>
@@ -8069,7 +8058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>810</v>
       </c>
@@ -8092,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>812</v>
       </c>
@@ -8115,7 +8104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>814</v>
       </c>
@@ -8138,7 +8127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>816</v>
       </c>
@@ -8161,7 +8150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>820</v>
       </c>
@@ -8184,7 +8173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>824</v>
       </c>
@@ -8207,7 +8196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>836</v>
       </c>
@@ -8218,19 +8207,19 @@
         <v>0</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F303" s="1">
         <v>0</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>842</v>
       </c>
@@ -8244,16 +8233,16 @@
         <v>2</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F304" s="1">
         <v>0</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>843</v>
       </c>
@@ -8267,16 +8256,16 @@
         <v>5</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F305" s="1">
         <v>1</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>844</v>
       </c>
@@ -8290,16 +8279,16 @@
         <v>1</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F306" s="1">
         <v>0</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>845</v>
       </c>
@@ -8307,22 +8296,22 @@
         <v>846</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D307" s="1">
         <v>5</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F307" s="1">
         <v>1</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>846</v>
       </c>
@@ -8330,22 +8319,22 @@
         <v>847</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F308" s="1">
         <v>0</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>847</v>
       </c>
@@ -8353,22 +8342,22 @@
         <v>848</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D309" s="1">
         <v>5</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F309" s="1">
         <v>1</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>848</v>
       </c>
@@ -8376,22 +8365,22 @@
         <v>849</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F310" s="1">
         <v>0</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>849</v>
       </c>
@@ -8399,22 +8388,22 @@
         <v>850</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D311" s="1">
         <v>5</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F311" s="1">
         <v>1</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>850</v>
       </c>
@@ -8422,22 +8411,22 @@
         <v>851</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F312" s="1">
         <v>0</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>851</v>
       </c>
@@ -8445,22 +8434,22 @@
         <v>852</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D313" s="1">
         <v>5</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F313" s="1">
         <v>1</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>852</v>
       </c>
@@ -8468,22 +8457,22 @@
         <v>853</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F314" s="1">
         <v>0</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>853</v>
       </c>
@@ -8491,22 +8480,22 @@
         <v>854</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F315" s="1">
         <v>1</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>854</v>
       </c>
@@ -8514,22 +8503,22 @@
         <v>855</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D316" s="1">
         <v>4</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F316" s="1">
         <v>1</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>855</v>
       </c>
@@ -8537,22 +8526,22 @@
         <v>856</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D317" s="1">
         <v>7</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F317" s="1">
         <v>0</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>856</v>
       </c>
@@ -8560,22 +8549,22 @@
         <v>858</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F318" s="1">
         <v>0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>858</v>
       </c>
@@ -8583,22 +8572,22 @@
         <v>860</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F319" s="1">
         <v>0</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>860</v>
       </c>
@@ -8606,22 +8595,22 @@
         <v>862</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D320" s="1">
         <v>4</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F320" s="1">
         <v>0</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>862</v>
       </c>
@@ -8629,22 +8618,22 @@
         <v>864</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D321" s="1">
         <v>5</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F321" s="1">
         <v>3</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>864</v>
       </c>
@@ -8652,22 +8641,22 @@
         <v>866</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D322" s="1">
         <v>1</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F322" s="1">
         <v>0</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>866</v>
       </c>
@@ -8675,22 +8664,22 @@
         <v>868</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F323" s="1">
         <v>0</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>868</v>
       </c>
@@ -8698,22 +8687,22 @@
         <v>870</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D324" s="1">
         <v>4</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F324" s="1">
         <v>0</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>870</v>
       </c>
@@ -8721,22 +8710,22 @@
         <v>872</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D325" s="1">
         <v>5</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F325" s="1">
         <v>3</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>872</v>
       </c>
@@ -8744,22 +8733,22 @@
         <v>873</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F326" s="1">
         <v>0</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>873</v>
       </c>
@@ -8767,22 +8756,22 @@
         <v>874</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D327" s="1">
         <v>5</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F327" s="1">
         <v>3</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>874</v>
       </c>
@@ -8790,22 +8779,22 @@
         <v>875</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D328" s="1">
         <v>1</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F328" s="1">
         <v>0</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>875</v>
       </c>
@@ -8813,22 +8802,22 @@
         <v>876</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D329" s="1">
         <v>5</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F329" s="1">
         <v>3</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>876</v>
       </c>
@@ -8836,22 +8825,22 @@
         <v>880</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D330" s="1">
         <v>1</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F330" s="1">
         <v>0</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>880</v>
       </c>
@@ -8859,7 +8848,7 @@
         <v>895</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D331" s="1">
         <v>1</v>
@@ -8874,7 +8863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>895</v>
       </c>
@@ -8882,7 +8871,7 @@
         <v>896</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>8</v>
@@ -8897,7 +8886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>896</v>
       </c>
@@ -8905,7 +8894,7 @@
         <v>906</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>45</v>
@@ -8920,7 +8909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>906</v>
       </c>
@@ -8928,7 +8917,7 @@
         <v>907</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D334" s="1">
         <v>-7</v>
@@ -8943,7 +8932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>907</v>
       </c>
@@ -8951,7 +8940,7 @@
         <v>908</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D335" s="1">
         <v>7</v>
@@ -8966,7 +8955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>908</v>
       </c>
@@ -8974,7 +8963,7 @@
         <v>910</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D336" s="1">
         <v>1</v>
@@ -8989,7 +8978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>910</v>
       </c>
@@ -8997,7 +8986,7 @@
         <v>911</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D337" s="1">
         <v>2</v>
@@ -9012,7 +9001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>911</v>
       </c>
@@ -9020,7 +9009,7 @@
         <v>912</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D338" s="1">
         <v>5</v>
@@ -9035,7 +9024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>912</v>
       </c>
@@ -9043,7 +9032,7 @@
         <v>916</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -9058,7 +9047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>916</v>
       </c>
@@ -9066,7 +9055,7 @@
         <v>918</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D340" s="1">
         <v>4</v>
@@ -9081,7 +9070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>918</v>
       </c>
@@ -9089,7 +9078,7 @@
         <v>920</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D341" s="1">
         <v>2</v>
@@ -9104,7 +9093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>920</v>
       </c>
@@ -9112,7 +9101,7 @@
         <v>922</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D342" s="1">
         <v>5</v>
@@ -9127,7 +9116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>922</v>
       </c>
@@ -9135,7 +9124,7 @@
         <v>924</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
@@ -9150,7 +9139,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>924</v>
       </c>
@@ -9158,7 +9147,7 @@
         <v>926</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D344" s="1">
         <v>6</v>
@@ -9173,7 +9162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>926</v>
       </c>
@@ -9181,7 +9170,7 @@
         <v>928</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D345" s="1">
         <v>4</v>
@@ -9196,7 +9185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>928</v>
       </c>
@@ -9204,7 +9193,7 @@
         <v>934</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D346" s="1">
         <v>7</v>
@@ -9219,7 +9208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>934</v>
       </c>
@@ -9227,7 +9216,7 @@
         <v>935</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D347" s="1">
         <v>5</v>
@@ -9242,7 +9231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>935</v>
       </c>
@@ -9250,7 +9239,7 @@
         <v>936</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D348" s="1">
         <v>4</v>
@@ -9265,7 +9254,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>936</v>
       </c>
@@ -9273,7 +9262,7 @@
         <v>938</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>68</v>
@@ -9288,7 +9277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>938</v>
       </c>
@@ -9296,7 +9285,7 @@
         <v>939</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D350" s="1">
         <v>4</v>
@@ -9311,7 +9300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>939</v>
       </c>
@@ -9319,7 +9308,7 @@
         <v>940</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>72</v>
@@ -9334,7 +9323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>940</v>
       </c>
@@ -9342,7 +9331,7 @@
         <v>942</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -9357,7 +9346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>942</v>
       </c>
@@ -9365,7 +9354,7 @@
         <v>944</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D353" s="1">
         <v>5</v>
@@ -9380,7 +9369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>944</v>
       </c>
@@ -9388,7 +9377,7 @@
         <v>948</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D354" s="1">
         <v>1</v>
@@ -9403,7 +9392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>948</v>
       </c>
@@ -9411,7 +9400,7 @@
         <v>950</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D355" s="1">
         <v>4</v>
@@ -9426,7 +9415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>950</v>
       </c>
@@ -9434,7 +9423,7 @@
         <v>952</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D356" s="1">
         <v>2</v>
@@ -9449,7 +9438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>952</v>
       </c>
@@ -9457,7 +9446,7 @@
         <v>954</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D357" s="1">
         <v>5</v>
@@ -9472,7 +9461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>954</v>
       </c>
@@ -9480,7 +9469,7 @@
         <v>956</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D358" s="1">
         <v>1</v>
@@ -9495,7 +9484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>956</v>
       </c>
@@ -9503,7 +9492,7 @@
         <v>958</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D359" s="1">
         <v>6</v>
@@ -9518,7 +9507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>958</v>
       </c>
@@ -9526,7 +9515,7 @@
         <v>960</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -9541,7 +9530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>960</v>
       </c>
@@ -9549,7 +9538,7 @@
         <v>966</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D361" s="1">
         <v>7</v>
@@ -9564,7 +9553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>966</v>
       </c>
@@ -9572,7 +9561,7 @@
         <v>967</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D362" s="1">
         <v>5</v>
@@ -9587,7 +9576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>967</v>
       </c>
@@ -9595,7 +9584,7 @@
         <v>968</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D363" s="1">
         <v>4</v>
@@ -9610,7 +9599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>968</v>
       </c>
@@ -9618,7 +9607,7 @@
         <v>972</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>68</v>
@@ -9633,7 +9622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>972</v>
       </c>
@@ -9641,7 +9630,7 @@
         <v>976</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D365" s="1">
         <v>6</v>
@@ -9656,7 +9645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>976</v>
       </c>
@@ -9664,7 +9653,7 @@
         <v>980</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>78</v>
@@ -9679,7 +9668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>980</v>
       </c>
@@ -9687,7 +9676,7 @@
         <v>982.5</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D367" s="1">
         <v>7</v>
@@ -9702,7 +9691,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>982.5</v>
       </c>
@@ -9710,7 +9699,7 @@
         <v>984</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D368" s="1">
         <v>5</v>
@@ -9725,7 +9714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>984</v>
       </c>
@@ -9733,7 +9722,7 @@
         <v>985.5</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D369" s="1">
         <v>1</v>
@@ -9748,7 +9737,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>985.5</v>
       </c>
@@ -9756,7 +9745,7 @@
         <v>986</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D370" s="1">
         <v>5</v>
@@ -9771,7 +9760,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>986</v>
       </c>
@@ -9779,7 +9768,7 @@
         <v>986.5</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D371" s="1">
         <v>1</v>
@@ -9794,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>986.5</v>
       </c>
@@ -9802,7 +9791,7 @@
         <v>987</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D372" s="1">
         <v>5</v>
@@ -9817,7 +9806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>987</v>
       </c>
@@ -9825,7 +9814,7 @@
         <v>987.5</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D373" s="1">
         <v>1</v>
@@ -9840,7 +9829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>987.5</v>
       </c>
@@ -9848,7 +9837,7 @@
         <v>988</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D374" s="1">
         <v>5</v>
@@ -9863,7 +9852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>988</v>
       </c>
@@ -9871,7 +9860,7 @@
         <v>988.5</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D375" s="1">
         <v>1</v>
@@ -9886,7 +9875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>988.5</v>
       </c>
@@ -9894,7 +9883,7 @@
         <v>989</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D376" s="1">
         <v>5</v>
@@ -9909,7 +9898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>989</v>
       </c>
@@ -9917,7 +9906,7 @@
         <v>989.5</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D377" s="1">
         <v>1</v>
@@ -9932,7 +9921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>989.5</v>
       </c>
@@ -9940,7 +9929,7 @@
         <v>990</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D378" s="1">
         <v>5</v>
@@ -9955,7 +9944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>990</v>
       </c>
@@ -9963,7 +9952,7 @@
         <v>990.5</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D379" s="1">
         <v>1</v>
@@ -9978,7 +9967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>990.5</v>
       </c>
@@ -9986,7 +9975,7 @@
         <v>991</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D380" s="1">
         <v>5</v>
@@ -10001,7 +9990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>991</v>
       </c>
@@ -10009,7 +9998,7 @@
         <v>991.5</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D381" s="1">
         <v>1</v>
@@ -10024,7 +10013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>991.5</v>
       </c>
@@ -10032,7 +10021,7 @@
         <v>992</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D382" s="1">
         <v>5</v>
@@ -10047,7 +10036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>992</v>
       </c>
@@ -10055,7 +10044,7 @@
         <v>994</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D383" s="1">
         <v>1</v>
@@ -10070,7 +10059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>994</v>
       </c>
@@ -10078,7 +10067,7 @@
         <v>996</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D384" s="1">
         <v>4</v>
@@ -10093,7 +10082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>996</v>
       </c>
@@ -10101,7 +10090,7 @@
         <v>998</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D385" s="1">
         <v>2</v>
@@ -10116,7 +10105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>998</v>
       </c>
@@ -10124,7 +10113,7 @@
         <v>1000</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D386" s="1">
         <v>5</v>
@@ -10139,7 +10128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1000</v>
       </c>
@@ -10147,7 +10136,7 @@
         <v>1000.5</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D387" s="1">
         <v>1</v>
@@ -10162,7 +10151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>1000.5</v>
       </c>
@@ -10170,7 +10159,7 @@
         <v>1001</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D388" s="1">
         <v>5</v>
@@ -10185,7 +10174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>1001</v>
       </c>
@@ -10193,7 +10182,7 @@
         <v>1001.5</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D389" s="1">
         <v>1</v>
@@ -10208,7 +10197,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>1001.5</v>
       </c>
@@ -10216,7 +10205,7 @@
         <v>1002</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D390" s="1">
         <v>5</v>
@@ -10231,7 +10220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>1002</v>
       </c>
@@ -10239,7 +10228,7 @@
         <v>1002.5</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D391" s="1">
         <v>1</v>
@@ -10254,7 +10243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1002.5</v>
       </c>
@@ -10262,7 +10251,7 @@
         <v>1003</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D392" s="1">
         <v>5</v>
@@ -10277,7 +10266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>1003</v>
       </c>
@@ -10285,7 +10274,7 @@
         <v>1003.5</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D393" s="1">
         <v>1</v>
@@ -10300,7 +10289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>1003.5</v>
       </c>
@@ -10308,7 +10297,7 @@
         <v>1004</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D394" s="1">
         <v>5</v>
@@ -10323,7 +10312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>1004</v>
       </c>
@@ -10331,7 +10320,7 @@
         <v>1004.5</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D395" s="1">
         <v>1</v>
@@ -10346,7 +10335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>1004.5</v>
       </c>
@@ -10354,7 +10343,7 @@
         <v>1005</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D396" s="1">
         <v>5</v>
@@ -10369,7 +10358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>1005</v>
       </c>
@@ -10377,7 +10366,7 @@
         <v>1005.5</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D397" s="1">
         <v>1</v>
@@ -10392,7 +10381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>1005.5</v>
       </c>
@@ -10400,7 +10389,7 @@
         <v>1006</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D398" s="1">
         <v>5</v>
@@ -10415,7 +10404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1006</v>
       </c>
@@ -10423,7 +10412,7 @@
         <v>1007</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D399" s="1">
         <v>1</v>
@@ -10438,7 +10427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>1007</v>
       </c>
@@ -10446,7 +10435,7 @@
         <v>1008</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D400" s="1">
         <v>6</v>
@@ -10461,7 +10450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>1008</v>
       </c>
@@ -10469,7 +10458,7 @@
         <v>1010</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>110</v>
@@ -10484,7 +10473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>1010</v>
       </c>
@@ -10492,7 +10481,7 @@
         <v>1014</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D402" s="1">
         <v>2</v>
@@ -10507,7 +10496,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>1014</v>
       </c>
@@ -10515,7 +10504,7 @@
         <v>1016</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D403" s="1">
         <v>5</v>
@@ -10530,7 +10519,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>1016</v>
       </c>
@@ -10538,7 +10527,7 @@
         <v>1020</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D404" s="1">
         <v>1</v>
@@ -10553,7 +10542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>1020</v>
       </c>
@@ -10561,22 +10550,22 @@
         <v>1022</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D405" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F405" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>1022</v>
       </c>
@@ -10584,22 +10573,22 @@
         <v>1024</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D406" s="1">
         <v>-2</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F406" s="1">
         <v>0</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>1024</v>
       </c>
@@ -10607,7 +10596,7 @@
         <v>1028</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D407" s="1">
         <v>1</v>
@@ -10622,7 +10611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>1028</v>
       </c>
@@ -10630,22 +10619,22 @@
         <v>1030</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D408" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F408" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>1030</v>
       </c>
@@ -10653,22 +10642,22 @@
         <v>1032</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D409" s="1">
         <v>-2</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F409" s="1">
         <v>1</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>1032</v>
       </c>
@@ -10676,7 +10665,7 @@
         <v>1034</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D410" s="1">
         <v>1</v>
@@ -10691,7 +10680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>1034</v>
       </c>
@@ -10699,22 +10688,22 @@
         <v>1036</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D411" s="1">
         <v>7</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F411" s="1">
         <v>2</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1036</v>
       </c>
@@ -10722,7 +10711,7 @@
         <v>1038</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D412" s="1">
         <v>1</v>
@@ -10737,7 +10726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>1038</v>
       </c>
@@ -10745,22 +10734,22 @@
         <v>1040</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D413" s="1">
         <v>-2</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F413" s="1">
         <v>1</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>1040</v>
       </c>
@@ -10768,7 +10757,7 @@
         <v>1048</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D414" s="1">
         <v>1</v>
@@ -10783,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>1048</v>
       </c>
@@ -10791,22 +10780,22 @@
         <v>1056</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D415" s="1">
         <v>5</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F415" s="1">
         <v>3</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>1056</v>
       </c>
@@ -10814,7 +10803,7 @@
         <v>1057</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D416" s="1">
         <v>1</v>
@@ -10829,7 +10818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>1057</v>
       </c>
@@ -10837,22 +10826,22 @@
         <v>1058</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D417" s="1">
         <v>5</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F417" s="1">
         <v>0</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>1058</v>
       </c>
@@ -10860,7 +10849,7 @@
         <v>1059</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D418" s="1">
         <v>1</v>
@@ -10875,7 +10864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>1059</v>
       </c>
@@ -10883,22 +10872,22 @@
         <v>1060</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D419" s="1">
         <v>5</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F419" s="1">
         <v>0</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1060</v>
       </c>
@@ -10906,7 +10895,7 @@
         <v>1062</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D420" s="1">
         <v>1</v>
@@ -10921,7 +10910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>1062</v>
       </c>
@@ -10929,22 +10918,22 @@
         <v>1064</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D421" s="1">
         <v>5</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F421" s="1">
         <v>0</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>1064</v>
       </c>
@@ -10952,7 +10941,7 @@
         <v>1067</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D422" s="1">
         <v>1</v>
